--- a/data/trans_dic/P79$hipoteca_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P79$hipoteca_2023-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01086493011489988</v>
+        <v>0.01100539147366854</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009246953833776116</v>
+        <v>0.009532949701366634</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01185308376641016</v>
+        <v>0.01286465234027405</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0417552453343204</v>
+        <v>0.03996845679500469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02989223793233319</v>
+        <v>0.03079907506487066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02873655413906379</v>
+        <v>0.02962956694918538</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0102516230377008</v>
+        <v>0.009765405157977566</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004020505794072226</v>
+        <v>0.004238149520499078</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008086735757032767</v>
+        <v>0.008267450571112117</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02806204981388253</v>
+        <v>0.02775663503149474</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01383917291457161</v>
+        <v>0.01391562088472338</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01755591034431931</v>
+        <v>0.01811674760051609</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.007165082098716892</v>
+        <v>0.007165082098716893</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.005914108129971176</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002296581703533357</v>
+        <v>0.002721735382794188</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002807604240922683</v>
+        <v>0.00280887754304834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003570234754504404</v>
+        <v>0.00352202047197467</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01458446027962553</v>
+        <v>0.01538983153078524</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01162603829286613</v>
+        <v>0.01160260678404191</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01125980698549784</v>
+        <v>0.0113389059200988</v>
       </c>
     </row>
     <row r="13">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0003736748602293003</v>
+        <v>0.0003780886521601499</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.007713283313018549</v>
+        <v>0.007537426861672177</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.005704290888542669</v>
+        <v>0.005446193523386802</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.004382032394147367</v>
+        <v>0.00460623063412429</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.01023383021924278</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.007139319188173903</v>
+        <v>0.007139319188173904</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.008647292383566312</v>
+        <v>0.008647292383566315</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007218075678935856</v>
+        <v>0.007229191887388516</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.00489482198513872</v>
+        <v>0.004982602808059989</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006561566297042572</v>
+        <v>0.006718608384319034</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01472542952343295</v>
+        <v>0.01483691776874671</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.009977534515013441</v>
+        <v>0.009893392740133228</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01100493769164379</v>
+        <v>0.01145502217978294</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4701</v>
+        <v>4762</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4885</v>
+        <v>5036</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11390</v>
+        <v>12362</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18068</v>
+        <v>17294</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15791</v>
+        <v>16270</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27614</v>
+        <v>28473</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9773</v>
+        <v>9310</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4449</v>
+        <v>4690</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16659</v>
+        <v>17031</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26753</v>
+        <v>26461</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>15316</v>
+        <v>15400</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36165</v>
+        <v>37321</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2394</v>
+        <v>2837</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7429</v>
+        <v>7329</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15204</v>
+        <v>16044</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12071</v>
+        <v>12047</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23429</v>
+        <v>23594</v>
       </c>
     </row>
     <row r="16">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7453</v>
+        <v>7283</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5125</v>
+        <v>4893</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8171</v>
+        <v>8589</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>24504</v>
+        <v>24542</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17483</v>
+        <v>17796</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>45711</v>
+        <v>46805</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>49990</v>
+        <v>50368</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>35636</v>
+        <v>35336</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>76665</v>
+        <v>79801</v>
       </c>
     </row>
     <row r="24">
